--- a/Results/documentation of the RAs (in corpus for subject 080401).xlsx
+++ b/Results/documentation of the RAs (in corpus for subject 080401).xlsx
@@ -556,10 +556,8 @@
           <t>材料科学</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>March, 2013</t>
-        </is>
+      <c r="H2" s="2" t="n">
+        <v>41334</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -643,10 +641,8 @@
           <t>材料科学</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Dec., 2017</t>
-        </is>
+      <c r="H3" s="2" t="n">
+        <v>43070</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -730,10 +726,8 @@
           <t>材料科学</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Nov., 2018</t>
-        </is>
+      <c r="H4" s="2" t="n">
+        <v>43405</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -817,10 +811,8 @@
           <t>材料科学：综合</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 20 July 2012</t>
-        </is>
+      <c r="H5" s="2" t="n">
+        <v>41110</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
